--- a/Outputs/results1995/QTAR_logReport1995(C&T).xlsx
+++ b/Outputs/results1995/QTAR_logReport1995(C&T).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="150">
   <si>
     <t>Countries</t>
   </si>
@@ -49,370 +49,421 @@
     <t>QKS</t>
   </si>
   <si>
-    <t>0.94(0.1)*</t>
-  </si>
-  <si>
-    <t>-0.0001(0.6)</t>
-  </si>
-  <si>
-    <t>-2.58(0.1)*</t>
-  </si>
-  <si>
-    <t>3.48(0.1)*</t>
-  </si>
-  <si>
-    <t>0.81(0.2)</t>
-  </si>
-  <si>
-    <t>-0.0034(0.2)</t>
-  </si>
-  <si>
-    <t>-2.31(0.1)*</t>
-  </si>
-  <si>
-    <t>3.59(0.1)*</t>
-  </si>
-  <si>
-    <t>0.94(0.0)***</t>
-  </si>
-  <si>
-    <t>-0.0076(0.0)***</t>
-  </si>
-  <si>
-    <t>-1.93(0.1)*</t>
-  </si>
-  <si>
-    <t>3.12(0.1)*</t>
-  </si>
-  <si>
-    <t>0.91(0.2)</t>
-  </si>
-  <si>
-    <t>-0.0037(0.2)</t>
-  </si>
-  <si>
-    <t>-3.32(0.0)***</t>
-  </si>
-  <si>
-    <t>3.5(0.0)***</t>
-  </si>
-  <si>
-    <t>1.02(1.0)</t>
-  </si>
-  <si>
-    <t>-0.0037(0.0)***</t>
-  </si>
-  <si>
-    <t>0.69(1.0)</t>
-  </si>
-  <si>
-    <t>4.62(0.0)***</t>
-  </si>
-  <si>
-    <t>0.95(0.1)*</t>
-  </si>
-  <si>
-    <t>-0.0005(0.4)</t>
-  </si>
-  <si>
-    <t>-3.48(0.0)***</t>
-  </si>
-  <si>
-    <t>0.9(0.2)</t>
-  </si>
-  <si>
-    <t>-0.0018(0.1)*</t>
-  </si>
-  <si>
-    <t>-3.43(0.0)***</t>
-  </si>
-  <si>
-    <t>0.97(0.0)***</t>
-  </si>
-  <si>
-    <t>-0.0043(0.0)***</t>
-  </si>
-  <si>
-    <t>-2.87(0.1)*</t>
-  </si>
-  <si>
-    <t>-0.0013(0.2)</t>
-  </si>
-  <si>
-    <t>-2.84(0.0)***</t>
-  </si>
-  <si>
-    <t>1.01(1.0)</t>
-  </si>
-  <si>
-    <t>-0.0012(0.1)*</t>
-  </si>
-  <si>
-    <t>0.93(1.0)</t>
-  </si>
-  <si>
-    <t>-0.0002(0.5)</t>
-  </si>
-  <si>
-    <t>-3.17(0.0)***</t>
-  </si>
-  <si>
-    <t>-0.0006(0.4)</t>
-  </si>
-  <si>
-    <t>-3.25(0.0)***</t>
-  </si>
-  <si>
-    <t>0.98(0.2)</t>
-  </si>
-  <si>
-    <t>-1.78(0.5)</t>
-  </si>
-  <si>
-    <t>0.96(0.2)</t>
-  </si>
-  <si>
-    <t>-0.0014(0.2)</t>
-  </si>
-  <si>
-    <t>-3.5(0.0)***</t>
-  </si>
-  <si>
-    <t>0.99(0.7)</t>
-  </si>
-  <si>
-    <t>-0.0006(0.1)*</t>
-  </si>
-  <si>
-    <t>-0.54(0.8)</t>
-  </si>
-  <si>
-    <t>0.98(0.5)</t>
-  </si>
-  <si>
-    <t>-0.0(0.6)</t>
-  </si>
-  <si>
-    <t>-1.23(0.8)</t>
-  </si>
-  <si>
-    <t>0.94(0.2)</t>
-  </si>
-  <si>
-    <t>-3.59(0.0)***</t>
-  </si>
-  <si>
-    <t>0.98(0.1)*</t>
-  </si>
-  <si>
-    <t>-0.0014(0.1)*</t>
-  </si>
-  <si>
-    <t>-2.34(0.1)*</t>
-  </si>
-  <si>
-    <t>0.97(0.1)*</t>
-  </si>
-  <si>
-    <t>-0.0014(0.0)***</t>
-  </si>
-  <si>
-    <t>-2.61(0.0)***</t>
-  </si>
-  <si>
-    <t>0.99(0.4)</t>
-  </si>
-  <si>
-    <t>0.0002(0.5)</t>
-  </si>
-  <si>
-    <t>-1.29(0.5)</t>
-  </si>
-  <si>
-    <t>0.98(0.6)</t>
-  </si>
-  <si>
-    <t>-0.0008(0.3)</t>
-  </si>
-  <si>
-    <t>-1.07(0.7)</t>
-  </si>
-  <si>
-    <t>0.0002(0.6)</t>
-  </si>
-  <si>
-    <t>-1.41(0.7)</t>
-  </si>
-  <si>
-    <t>0.98(0.0)***</t>
-  </si>
-  <si>
-    <t>-0.0017(0.1)*</t>
-  </si>
-  <si>
-    <t>-3.12(0.0)***</t>
-  </si>
-  <si>
-    <t>-0.0007(0.0)***</t>
-  </si>
-  <si>
-    <t>-2.18(0.2)</t>
-  </si>
-  <si>
-    <t>0.99(0.3)</t>
-  </si>
-  <si>
-    <t>0.0004(0.6)</t>
-  </si>
-  <si>
-    <t>-2.2(0.2)</t>
-  </si>
-  <si>
-    <t>0.99(0.8)</t>
-  </si>
-  <si>
-    <t>-0.0005(0.5)</t>
-  </si>
-  <si>
-    <t>-0.58(0.9)</t>
-  </si>
-  <si>
-    <t>0.99(0.9)</t>
-  </si>
-  <si>
-    <t>-0.0011(0.2)</t>
-  </si>
-  <si>
-    <t>-0.75(0.9)</t>
-  </si>
-  <si>
-    <t>-2.28(0.0)***</t>
-  </si>
-  <si>
-    <t>0.98(0.4)</t>
-  </si>
-  <si>
-    <t>-0.0012(0.0)***</t>
-  </si>
-  <si>
-    <t>-1.21(0.5)</t>
-  </si>
-  <si>
-    <t>0.0004(0.4)</t>
-  </si>
-  <si>
-    <t>-4.62(0.0)***</t>
-  </si>
-  <si>
-    <t>-0.46(0.8)</t>
-  </si>
-  <si>
-    <t>-0.0016(0.2)</t>
-  </si>
-  <si>
-    <t>0.47(1.0)</t>
-  </si>
-  <si>
-    <t>-0.0014(0.4)</t>
-  </si>
-  <si>
-    <t>-1.83(0.1)*</t>
-  </si>
-  <si>
-    <t>0.99(0.6)</t>
-  </si>
-  <si>
-    <t>0.0001(0.4)</t>
-  </si>
-  <si>
-    <t>-0.85(0.9)</t>
-  </si>
-  <si>
-    <t>0.0007(0.6)</t>
-  </si>
-  <si>
-    <t>-3.38(0.1)*</t>
-  </si>
-  <si>
-    <t>1.0(0.9)</t>
-  </si>
-  <si>
-    <t>0.05(0.9)</t>
+    <t>0.94(0.082)*</t>
+  </si>
+  <si>
+    <t>-0.0001(0.46)</t>
+  </si>
+  <si>
+    <t>-2.59(0.124)</t>
+  </si>
+  <si>
+    <t>3.48(0.258)</t>
+  </si>
+  <si>
+    <t>0.81(0.092)*</t>
+  </si>
+  <si>
+    <t>-0.0034(0.208)</t>
+  </si>
+  <si>
+    <t>-2.31(0.062)*</t>
+  </si>
+  <si>
+    <t>3.59(0.119)</t>
+  </si>
+  <si>
+    <t>0.94(0.094)*</t>
+  </si>
+  <si>
+    <t>-0.0076(0.03)**</t>
+  </si>
+  <si>
+    <t>-1.93(0.203)</t>
+  </si>
+  <si>
+    <t>3.12(0.307)</t>
+  </si>
+  <si>
+    <t>0.91(0.088)*</t>
+  </si>
+  <si>
+    <t>-0.0037(0.094)*</t>
+  </si>
+  <si>
+    <t>-3.32(0.051)*</t>
+  </si>
+  <si>
+    <t>3.5(0.249)</t>
+  </si>
+  <si>
+    <t>1.02(0.999)</t>
+  </si>
+  <si>
+    <t>-0.0037(0.178)</t>
+  </si>
+  <si>
+    <t>0.69(0.996)</t>
+  </si>
+  <si>
+    <t>4.62(0.034)**</t>
+  </si>
+  <si>
+    <t>0.95(0.035)**</t>
+  </si>
+  <si>
+    <t>-0.0005(0.361)</t>
+  </si>
+  <si>
+    <t>-3.48(0.056)*</t>
+  </si>
+  <si>
+    <t>0.9(0.044)**</t>
+  </si>
+  <si>
+    <t>-0.0018(0.179)</t>
+  </si>
+  <si>
+    <t>-3.43(0.033)**</t>
+  </si>
+  <si>
+    <t>0.97(0.107)</t>
+  </si>
+  <si>
+    <t>-0.0043(0.019)**</t>
+  </si>
+  <si>
+    <t>-2.87(0.116)</t>
+  </si>
+  <si>
+    <t>0.95(0.177)</t>
+  </si>
+  <si>
+    <t>-0.0013(0.235)</t>
+  </si>
+  <si>
+    <t>-2.84(0.149)</t>
+  </si>
+  <si>
+    <t>1.01(0.996)</t>
+  </si>
+  <si>
+    <t>-0.0012(0.283)</t>
+  </si>
+  <si>
+    <t>0.93(0.99)</t>
+  </si>
+  <si>
+    <t>0.95(0.033)**</t>
+  </si>
+  <si>
+    <t>-0.0002(0.424)</t>
+  </si>
+  <si>
+    <t>-3.17(0.108)</t>
+  </si>
+  <si>
+    <t>0.94(0.101)</t>
+  </si>
+  <si>
+    <t>-0.0006(0.367)</t>
+  </si>
+  <si>
+    <t>-3.25(0.054)*</t>
+  </si>
+  <si>
+    <t>0.98(0.325)</t>
+  </si>
+  <si>
+    <t>-0.0018(0.07)*</t>
+  </si>
+  <si>
+    <t>-1.78(0.429)</t>
+  </si>
+  <si>
+    <t>0.96(0.117)</t>
+  </si>
+  <si>
+    <t>-0.0014(0.138)</t>
+  </si>
+  <si>
+    <t>-3.5(0.061)*</t>
+  </si>
+  <si>
+    <t>0.99(0.721)</t>
+  </si>
+  <si>
+    <t>-0.0006(0.353)</t>
+  </si>
+  <si>
+    <t>-0.54(0.819)</t>
+  </si>
+  <si>
+    <t>0.98(0.465)</t>
+  </si>
+  <si>
+    <t>-0.0(0.488)</t>
+  </si>
+  <si>
+    <t>-1.23(0.728)</t>
+  </si>
+  <si>
+    <t>0.94(0.073)*</t>
+  </si>
+  <si>
+    <t>-0.0002(0.468)</t>
+  </si>
+  <si>
+    <t>-3.59(0.034)**</t>
+  </si>
+  <si>
+    <t>0.98(0.153)</t>
+  </si>
+  <si>
+    <t>-0.0014(0.091)*</t>
+  </si>
+  <si>
+    <t>-2.34(0.245)</t>
+  </si>
+  <si>
+    <t>0.97(0.199)</t>
+  </si>
+  <si>
+    <t>-0.0014(0.141)</t>
+  </si>
+  <si>
+    <t>-2.61(0.254)</t>
+  </si>
+  <si>
+    <t>0.99(0.348)</t>
+  </si>
+  <si>
+    <t>0.0002(0.561)</t>
+  </si>
+  <si>
+    <t>-1.29(0.578)</t>
+  </si>
+  <si>
+    <t>0.98(0.535)</t>
+  </si>
+  <si>
+    <t>-0.0008(0.268)</t>
+  </si>
+  <si>
+    <t>-1.07(0.804)</t>
+  </si>
+  <si>
+    <t>0.98(0.375)</t>
+  </si>
+  <si>
+    <t>0.0002(0.552)</t>
+  </si>
+  <si>
+    <t>-1.41(0.451)</t>
+  </si>
+  <si>
+    <t>0.98(0.088)*</t>
+  </si>
+  <si>
+    <t>-0.0017(0.055)*</t>
+  </si>
+  <si>
+    <t>-3.12(0.083)*</t>
+  </si>
+  <si>
+    <t>0.97(0.362)</t>
+  </si>
+  <si>
+    <t>-0.0007(0.295)</t>
+  </si>
+  <si>
+    <t>-2.18(0.435)</t>
+  </si>
+  <si>
+    <t>0.99(0.19)</t>
+  </si>
+  <si>
+    <t>0.0004(0.64)</t>
+  </si>
+  <si>
+    <t>-2.2(0.262)</t>
+  </si>
+  <si>
+    <t>0.99(0.771)</t>
+  </si>
+  <si>
+    <t>-0.0005(0.363)</t>
+  </si>
+  <si>
+    <t>-0.58(0.894)</t>
+  </si>
+  <si>
+    <t>0.99(0.649)</t>
+  </si>
+  <si>
+    <t>-0.0011(0.184)</t>
+  </si>
+  <si>
+    <t>-0.75(0.711)</t>
+  </si>
+  <si>
+    <t>0.98(0.227)</t>
+  </si>
+  <si>
+    <t>-0.0005(0.344)</t>
+  </si>
+  <si>
+    <t>-2.28(0.269)</t>
+  </si>
+  <si>
+    <t>0.98(0.662)</t>
+  </si>
+  <si>
+    <t>-0.0012(0.21)</t>
+  </si>
+  <si>
+    <t>-1.21(0.765)</t>
+  </si>
+  <si>
+    <t>0.97(0.013)**</t>
+  </si>
+  <si>
+    <t>-4.62(0.008)***</t>
+  </si>
+  <si>
+    <t>0.99(0.84)</t>
+  </si>
+  <si>
+    <t>-0.0008(0.261)</t>
+  </si>
+  <si>
+    <t>-0.46(0.903)</t>
+  </si>
+  <si>
+    <t>1.01(0.978)</t>
+  </si>
+  <si>
+    <t>-0.0016(0.101)</t>
+  </si>
+  <si>
+    <t>0.47(0.957)</t>
+  </si>
+  <si>
+    <t>0.98(0.28)</t>
+  </si>
+  <si>
+    <t>-0.0014(0.125)</t>
+  </si>
+  <si>
+    <t>-1.83(0.346)</t>
+  </si>
+  <si>
+    <t>0.99(0.821)</t>
+  </si>
+  <si>
+    <t>0.0001(0.524)</t>
+  </si>
+  <si>
+    <t>-0.85(0.847)</t>
+  </si>
+  <si>
+    <t>0.97(0.027)**</t>
+  </si>
+  <si>
+    <t>0.0007(0.719)</t>
+  </si>
+  <si>
+    <t>-3.38(0.046)**</t>
+  </si>
+  <si>
+    <t>1.0(0.963)</t>
+  </si>
+  <si>
+    <t>-0.0014(0.183)</t>
+  </si>
+  <si>
+    <t>0.05(0.961)</t>
   </si>
   <si>
     <t>1.05(1.0)</t>
   </si>
   <si>
-    <t>-0.0023(0.2)</t>
-  </si>
-  <si>
-    <t>1.8(1.0)</t>
-  </si>
-  <si>
-    <t>0.99(0.5)</t>
-  </si>
-  <si>
-    <t>-0.0017(0.3)</t>
-  </si>
-  <si>
-    <t>-0.48(0.7)</t>
-  </si>
-  <si>
-    <t>1.0(1.0)</t>
-  </si>
-  <si>
-    <t>0.0003(0.5)</t>
-  </si>
-  <si>
-    <t>-0.34(1.0)</t>
-  </si>
-  <si>
-    <t>0.96(0.0)***</t>
-  </si>
-  <si>
-    <t>-0.0006(0.3)</t>
-  </si>
-  <si>
-    <t>-3.52(0.0)***</t>
-  </si>
-  <si>
-    <t>1.01(0.8)</t>
-  </si>
-  <si>
-    <t>-0.0021(0.2)</t>
-  </si>
-  <si>
-    <t>0.19(0.8)</t>
-  </si>
-  <si>
-    <t>1.08(1.0)</t>
-  </si>
-  <si>
-    <t>-0.0072(0.1)*</t>
-  </si>
-  <si>
-    <t>1.61(1.0)</t>
-  </si>
-  <si>
-    <t>-0.0007(0.4)</t>
-  </si>
-  <si>
-    <t>0.23(1.0)</t>
-  </si>
-  <si>
-    <t>0.0003(0.6)</t>
-  </si>
-  <si>
-    <t>0.66(1.0)</t>
-  </si>
-  <si>
-    <t>0.93(0.0)***</t>
-  </si>
-  <si>
-    <t>-0.001(0.3)</t>
-  </si>
-  <si>
-    <t>-3.09(0.0)***</t>
+    <t>-0.0023(0.074)*</t>
+  </si>
+  <si>
+    <t>1.8(0.999)</t>
+  </si>
+  <si>
+    <t>0.99(0.757)</t>
+  </si>
+  <si>
+    <t>-0.0017(0.166)</t>
+  </si>
+  <si>
+    <t>-0.48(0.815)</t>
+  </si>
+  <si>
+    <t>1.0(0.889)</t>
+  </si>
+  <si>
+    <t>0.0003(0.594)</t>
+  </si>
+  <si>
+    <t>-0.34(0.913)</t>
+  </si>
+  <si>
+    <t>0.96(0.017)**</t>
+  </si>
+  <si>
+    <t>-0.0006(0.359)</t>
+  </si>
+  <si>
+    <t>-3.52(0.017)**</t>
+  </si>
+  <si>
+    <t>1.01(0.966)</t>
+  </si>
+  <si>
+    <t>-0.0021(0.186)</t>
+  </si>
+  <si>
+    <t>0.19(0.958)</t>
+  </si>
+  <si>
+    <t>1.08(0.999)</t>
+  </si>
+  <si>
+    <t>-0.0072(0.02)**</t>
+  </si>
+  <si>
+    <t>1.61(0.995)</t>
+  </si>
+  <si>
+    <t>1.0(0.931)</t>
+  </si>
+  <si>
+    <t>-0.0007(0.399)</t>
+  </si>
+  <si>
+    <t>0.23(0.925)</t>
+  </si>
+  <si>
+    <t>1.01(0.989)</t>
+  </si>
+  <si>
+    <t>0.0003(0.541)</t>
+  </si>
+  <si>
+    <t>0.66(0.986)</t>
+  </si>
+  <si>
+    <t>0.93(0.042)**</t>
+  </si>
+  <si>
+    <t>-0.001(0.389)</t>
+  </si>
+  <si>
+    <t>-3.09(0.026)**</t>
   </si>
 </sst>
 </file>
@@ -825,25 +876,25 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="I2" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="J2" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="K2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -858,25 +909,25 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H3" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="I3" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="J3" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="K3" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -891,25 +942,25 @@
         <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I4" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="J4" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="K4" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -935,25 +986,25 @@
         <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G6" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="J6" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="K6" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -968,25 +1019,25 @@
         <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I7" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="J7" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="K7" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1001,25 +1052,25 @@
         <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G8" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="K8" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1045,25 +1096,25 @@
         <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G10" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="I10" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1078,25 +1129,25 @@
         <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="I11" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="J11" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="K11" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1111,25 +1162,25 @@
         <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G12" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="I12" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="J12" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="K12" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1152,28 +1203,28 @@
         <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G14" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="H14" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I14" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="J14" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1185,28 +1236,28 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G15" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="I15" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="J15" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="K15" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1218,28 +1269,28 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="I16" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="J16" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="K16" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1262,28 +1313,28 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="I18" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="J18" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="K18" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1295,28 +1346,28 @@
         <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H19" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I19" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="J19" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="K19" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1328,28 +1379,28 @@
         <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="I20" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="J20" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="K20" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:11">
